--- a/demo.xlsx
+++ b/demo.xlsx
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,36 +77,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -114,48 +94,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,15 +110,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D2" totalsRowCount="1">
-  <autoFilter ref="A1:D1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E2" totalsRowShown="0">
+  <autoFilter ref="A1:E2"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Trust Level"/>
+    <tableColumn id="5" name="Microservice"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D3" totalsRowShown="0">
+  <autoFilter ref="A1:D3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Limit of Access"/>
     <tableColumn id="4" name="Level of Authorization"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -471,46 +429,49 @@
   <cols>
     <col min="1" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
